--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
@@ -66,25 +66,25 @@
     <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000059</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000060</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000061</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000027</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000062</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000063</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000064</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000058</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000059</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000060</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000020</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000061</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000062</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000063</t>
   </si>
   <si>
     <t>MAT_A</t>
@@ -564,19 +564,19 @@
         <v>45298</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
       <c r="K2">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="L2">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="M2">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -605,19 +605,19 @@
         <v>45298</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="L3">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="M3">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -646,19 +646,19 @@
         <v>45298</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="L4">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="M4">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -687,19 +687,19 @@
         <v>45298</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="L5">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="M5">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -728,19 +728,19 @@
         <v>45298</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -769,19 +769,19 @@
         <v>45298</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -810,19 +810,19 @@
         <v>45298</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -899,16 +899,16 @@
         <v>44</v>
       </c>
       <c r="H2">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="I2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J2">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="K2">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
       <c r="L2" t="s">
         <v>35</v>
@@ -934,19 +934,19 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -58,6 +58,54 @@
   </si>
   <si>
     <t>truck_used</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>missing_element</t>
+  </si>
+  <si>
+    <t>affected_records</t>
+  </si>
+  <si>
+    <t>route_breakdown</t>
+  </si>
+  <si>
+    <t>Global_DemandPriority</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for AO" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for normal" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Data Loss - 1 deployment plans excluded</t>
+  </si>
+  <si>
+    <t>net demand for AO</t>
+  </si>
+  <si>
+    <t>net demand for normal</t>
+  </si>
+  <si>
+    <t>cross_node: 1</t>
   </si>
 </sst>
 </file>
@@ -520,12 +568,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
@@ -19,26 +19,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+  <si>
+    <t>vehicle_uid</t>
+  </si>
+  <si>
+    <t>ori_deployment_uid</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>planned_deployment_date</t>
+  </si>
+  <si>
+    <t>actual_ship_date</t>
+  </si>
+  <si>
+    <t>actual_delivery_date</t>
+  </si>
+  <si>
+    <t>delivery_qty</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>truck_load_pct</t>
+  </si>
+  <si>
+    <t>WFR</t>
+  </si>
+  <si>
+    <t>VFR</t>
+  </si>
+  <si>
+    <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+  </si>
+  <si>
+    <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+  </si>
+  <si>
+    <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000059</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000060</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000056</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000078</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000079</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>DC_002</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
     <t>vehicle_no</t>
   </si>
   <si>
-    <t>vehicle_uid</t>
-  </si>
-  <si>
     <t>total_units</t>
   </si>
   <si>
@@ -48,13 +123,10 @@
     <t>total_volume</t>
   </si>
   <si>
-    <t>WFR</t>
-  </si>
-  <si>
-    <t>VFR</t>
-  </si>
-  <si>
     <t>trigger</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
   <si>
     <t>truck_used</t>
@@ -112,6 +184,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -164,11 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,19 +539,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>0.61</v>
+      </c>
+      <c r="L6">
+        <v>0.61</v>
+      </c>
+      <c r="M6">
+        <v>0.585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.61</v>
+      </c>
+      <c r="L7">
+        <v>0.61</v>
+      </c>
+      <c r="M7">
+        <v>0.585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>0.61</v>
+      </c>
+      <c r="L8">
+        <v>0.61</v>
+      </c>
+      <c r="M8">
+        <v>0.585</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,40 +888,154 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>61</v>
+      </c>
+      <c r="I4">
+        <v>117</v>
+      </c>
+      <c r="J4">
+        <v>0.61</v>
+      </c>
+      <c r="K4">
+        <v>0.585</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,19 +1053,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -576,74 +1129,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -60,31 +60,64 @@
     <t>VFR</t>
   </si>
   <si>
+    <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
+    <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
     <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
     <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000059</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000060</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000056</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000078</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000079</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000074</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000075</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000083</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000092</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000076</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000084</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000093</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000077</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000085</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000094</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000086</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000095</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000088</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000089</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000090</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
   </si>
   <si>
     <t>MAT_A</t>
@@ -96,16 +129,16 @@
     <t>PLANT_001</t>
   </si>
   <si>
+    <t>DC_001</t>
+  </si>
+  <si>
     <t>DC_002</t>
   </si>
   <si>
-    <t>DC_001</t>
+    <t>LARGE</t>
   </si>
   <si>
     <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>LARGE</t>
   </si>
   <si>
     <t>date</t>
@@ -539,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,19 +624,19 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G2" s="2">
         <v>45296</v>
@@ -612,11 +645,11 @@
         <v>45298</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
@@ -624,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -632,16 +665,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
         <v>45297</v>
@@ -653,10 +686,10 @@
         <v>45298</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -665,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -673,19 +706,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G4" s="2">
         <v>45296</v>
@@ -694,10 +727,10 @@
         <v>45298</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -706,27 +739,27 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G5" s="2">
         <v>45296</v>
@@ -735,36 +768,36 @@
         <v>45298</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3333333333333333</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2">
         <v>45298</v>
@@ -776,36 +809,36 @@
         <v>45298</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.585</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2">
         <v>45298</v>
@@ -817,60 +850,511 @@
         <v>45298</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.585</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I8">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>0.44</v>
+      </c>
+      <c r="L12">
+        <v>0.44</v>
+      </c>
+      <c r="M12">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>0.44</v>
+      </c>
+      <c r="L13">
+        <v>0.44</v>
+      </c>
+      <c r="M13">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>0.44</v>
+      </c>
+      <c r="L14">
+        <v>0.44</v>
+      </c>
+      <c r="M14">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I18">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <v>0.61</v>
-      </c>
-      <c r="L8">
-        <v>0.61</v>
-      </c>
-      <c r="M8">
-        <v>0.585</v>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="L18">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.4333333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="L19">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.4333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -888,7 +1372,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -900,19 +1384,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -921,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -929,13 +1413,13 @@
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -944,22 +1428,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>120</v>
+        <v>198.5</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -967,13 +1451,13 @@
         <v>45296</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -982,22 +1466,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>87.5</v>
       </c>
       <c r="J3">
-        <v>0.3333333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="K3">
-        <v>0.3333333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1005,13 +1489,13 @@
         <v>45296</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1020,22 +1504,60 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J4">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.585</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K5">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1575,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1065,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1073,16 +1595,16 @@
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1090,13 +1612,13 @@
         <v>45296</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1129,74 +1651,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,67 +63,61 @@
     <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
-  </si>
-  <si>
     <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
     <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000074</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000075</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000083</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000092</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000076</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000084</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000093</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000077</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000085</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000094</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000086</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000095</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000088</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000089</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000090</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000100</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000116</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000101</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000117</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000102</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000118</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000103</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000119</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000067</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000092</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000112</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000068</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000093</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
   </si>
   <si>
     <t>MAT_A</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -572,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,40 +618,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M2">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -665,16 +659,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2">
         <v>45297</v>
@@ -686,19 +680,19 @@
         <v>45298</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M3">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -706,40 +700,40 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M4">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -747,40 +741,40 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I5">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M5">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -788,40 +782,40 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M6">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -829,40 +823,40 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M7">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -870,40 +864,40 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I8">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M8">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -911,60 +905,60 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M9">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" s="2">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G10" s="2">
         <v>45296</v>
@@ -973,10 +967,10 @@
         <v>45298</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -985,27 +979,27 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" s="2">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G11" s="2">
         <v>45296</v>
@@ -1014,10 +1008,10 @@
         <v>45299</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1026,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1037,16 +1031,16 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="2">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G12" s="2">
         <v>45296</v>
@@ -1055,19 +1049,19 @@
         <v>45298</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1078,16 +1072,16 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" s="2">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="G13" s="2">
         <v>45296</v>
@@ -1096,39 +1090,39 @@
         <v>45298</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" s="2">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="G14" s="2">
         <v>45296</v>
@@ -1137,19 +1131,19 @@
         <v>45299</v>
       </c>
       <c r="I14">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1157,31 +1151,31 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I15">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1198,31 +1192,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I16">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>39</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1239,32 +1233,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45298</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
       <c r="K17">
         <v>1</v>
       </c>
@@ -1273,88 +1267,6 @@
       </c>
       <c r="M17">
         <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G18" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I18">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="L18">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45300</v>
-      </c>
-      <c r="G19" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H19" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="L19">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.4333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1384,19 +1296,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1405,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1413,13 +1325,13 @@
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1428,22 +1340,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="I2">
-        <v>198.5</v>
+        <v>186</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="K2">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1451,37 +1363,37 @@
         <v>45296</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>44</v>
-      </c>
-      <c r="I3">
-        <v>87.5</v>
-      </c>
-      <c r="J3">
-        <v>0.44</v>
-      </c>
-      <c r="K3">
-        <v>0.4375</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1489,16 +1401,16 @@
         <v>45296</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1519,45 +1431,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
-        <v>45296</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>26</v>
-      </c>
-      <c r="I5">
-        <v>52</v>
-      </c>
-      <c r="J5">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="K5">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1449,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1587,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1595,16 +1469,16 @@
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1612,13 +1486,13 @@
         <v>45296</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1651,74 +1525,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>61</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240105.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,61 +63,55 @@
     <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
+    <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
     <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
     <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000100</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000116</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000101</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000117</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000102</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000118</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000103</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000119</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000067</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000092</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000112</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000068</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000093</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000041</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000089</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000094</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000090</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000095</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000091</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000096</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000092</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000097</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000037</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000085</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000086</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -566,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,16 +612,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
         <v>45297</v>
@@ -639,19 +633,19 @@
         <v>45298</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K2">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L2">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M2">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -659,16 +653,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="2">
         <v>45297</v>
@@ -680,19 +674,19 @@
         <v>45298</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L3">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M3">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -700,19 +694,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G4" s="2">
         <v>45296</v>
@@ -721,19 +715,19 @@
         <v>45298</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L4">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M4">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -741,16 +735,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>45298</v>
@@ -762,19 +756,19 @@
         <v>45298</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L5">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M5">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -782,19 +776,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G6" s="2">
         <v>45296</v>
@@ -806,36 +800,36 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L6">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M6">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="2">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G7" s="2">
         <v>45296</v>
@@ -844,39 +838,39 @@
         <v>45298</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.9520000000000001</v>
+        <v>0.956</v>
       </c>
       <c r="L7">
-        <v>0.9520000000000001</v>
+        <v>0.956</v>
       </c>
       <c r="M7">
-        <v>0.93</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G8" s="2">
         <v>45296</v>
@@ -885,39 +879,39 @@
         <v>45298</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.9520000000000001</v>
+        <v>0.956</v>
       </c>
       <c r="L8">
-        <v>0.9520000000000001</v>
+        <v>0.956</v>
       </c>
       <c r="M8">
-        <v>0.93</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G9" s="2">
         <v>45296</v>
@@ -926,19 +920,19 @@
         <v>45298</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.9520000000000001</v>
+        <v>0.956</v>
       </c>
       <c r="L9">
-        <v>0.9520000000000001</v>
+        <v>0.956</v>
       </c>
       <c r="M9">
-        <v>0.93</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -949,16 +943,16 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="2">
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="G10" s="2">
         <v>45296</v>
@@ -967,19 +961,19 @@
         <v>45298</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -990,16 +984,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="2">
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="G11" s="2">
         <v>45296</v>
@@ -1008,36 +1002,36 @@
         <v>45299</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2">
         <v>45297</v>
@@ -1049,10 +1043,10 @@
         <v>45298</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1066,19 +1060,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="2">
         <v>45297</v>
@@ -1093,7 +1087,7 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1107,19 +1101,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
       </c>
       <c r="F14" s="2">
         <v>45297</v>
@@ -1131,10 +1125,10 @@
         <v>45299</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1148,19 +1142,19 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="2">
         <v>45298</v>
@@ -1172,10 +1166,10 @@
         <v>45298</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1184,88 +1178,6 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I16">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45296</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45298</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
         <v>1</v>
       </c>
     </row>
@@ -1276,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1296,19 +1208,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1317,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1325,13 +1237,13 @@
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1340,22 +1252,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H2">
-        <v>95.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>186</v>
+        <v>196.5</v>
       </c>
       <c r="J2">
-        <v>0.9520000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="K2">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1363,37 +1275,37 @@
         <v>45296</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>187.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1401,16 +1313,16 @@
         <v>45296</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1431,7 +1343,45 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1399,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1461,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1469,16 +1419,16 @@
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1486,13 +1436,13 @@
         <v>45296</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1525,74 +1475,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>59</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
